--- a/Material-coord/Results_for_ternary_sample.xlsx
+++ b/Material-coord/Results_for_ternary_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\softBV_mix\GitHub\projects\Coord\Material-coord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9780407-BD4D-4EB2-8A78-62432E4F8A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB6F621-F92C-4DBB-B3CA-5CA21CB45E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1620" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">compare!$A$1:$C$130</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">compare!$B$2:$B$130</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">compare!$C$2:$C$130</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="847">
   <si>
     <t>File</t>
   </si>
@@ -2565,6 +2563,9 @@
   </si>
   <si>
     <t>Coordination from cn_425</t>
+  </si>
+  <si>
+    <t>Coordination cn_45</t>
   </si>
 </sst>
 </file>
@@ -2728,400 +2729,399 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>compare!$B$2:$B$130</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="129"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>Al1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>Ba1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>Be1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>Be2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>O3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>O4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>B1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>Ca1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>Ca1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>Fe1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>Fe2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>O3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>O4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>Fe1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
+                  <c:v>Fe2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
+                  <c:v>O3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4</c:v>
+                  <c:v>Si1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6</c:v>
+                  <c:v>F1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6</c:v>
+                  <c:v>F2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9</c:v>
+                  <c:v>K1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6</c:v>
+                  <c:v>Ni1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11</c:v>
+                  <c:v>K1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>K2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2</c:v>
+                  <c:v>O3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4</c:v>
+                  <c:v>S1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6</c:v>
+                  <c:v>Al1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4</c:v>
+                  <c:v>Mg1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6</c:v>
+                  <c:v>Na1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4</c:v>
+                  <c:v>S1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6</c:v>
+                  <c:v>Pb1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7</c:v>
+                  <c:v>Sr1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12</c:v>
+                  <c:v>Ba1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6</c:v>
+                  <c:v>Ti1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>C1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9</c:v>
+                  <c:v>Ca1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3</c:v>
+                  <c:v>C1</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6</c:v>
+                  <c:v>Ca1</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6</c:v>
+                  <c:v>Fe1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6</c:v>
+                  <c:v>Ti1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12</c:v>
+                  <c:v>Sr1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6</c:v>
+                  <c:v>Ti1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4</c:v>
+                  <c:v>Al1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4</c:v>
+                  <c:v>As1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4</c:v>
+                  <c:v>As1</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4</c:v>
+                  <c:v>B1</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11</c:v>
+                  <c:v>Ba1</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4</c:v>
+                  <c:v>F1</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4</c:v>
+                  <c:v>F2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4</c:v>
+                  <c:v>F3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5</c:v>
+                  <c:v>F4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6</c:v>
+                  <c:v>Zn1</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8</c:v>
+                  <c:v>Ca1</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4</c:v>
+                  <c:v>W1</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10</c:v>
+                  <c:v>Ce1</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3</c:v>
+                  <c:v>O3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3</c:v>
+                  <c:v>O4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4</c:v>
+                  <c:v>P1</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6</c:v>
+                  <c:v>Cr1</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4</c:v>
+                  <c:v>V1</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6</c:v>
+                  <c:v>Fe1</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6</c:v>
+                  <c:v>W1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4</c:v>
+                  <c:v>Ga1</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4</c:v>
+                  <c:v>P1</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6</c:v>
+                  <c:v>Mg1</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6</c:v>
+                  <c:v>U1</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6</c:v>
+                  <c:v>Mn1</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6</c:v>
+                  <c:v>Mn2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4</c:v>
+                  <c:v>Mo1</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4</c:v>
+                  <c:v>Mo2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2</c:v>
+                  <c:v>O3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3</c:v>
+                  <c:v>O4</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2</c:v>
+                  <c:v>O5</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6</c:v>
+                  <c:v>Nb1</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3</c:v>
+                  <c:v>O3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2</c:v>
+                  <c:v>O4</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5</c:v>
+                  <c:v>Sb1</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6</c:v>
+                  <c:v>Al1</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2</c:v>
+                  <c:v>F1</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5</c:v>
+                  <c:v>F2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8</c:v>
+                  <c:v>Tl1</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3</c:v>
+                  <c:v>O2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2</c:v>
+                  <c:v>O3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4</c:v>
+                  <c:v>S1</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>6</c:v>
+                  <c:v>Zn1</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3</c:v>
+                  <c:v>O1</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4</c:v>
+                  <c:v>Si1</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Zr1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -3130,391 +3130,391 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="129"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3795,385 +3795,385 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="129"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="43">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="91">
-                  <c:v>3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="99">
-                  <c:v>3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="105">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="104">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="106">
-                  <c:v>4</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="108">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="126">
-                  <c:v>3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>4</c:v>
@@ -4191,391 +4191,391 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="129"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5890,16 +5890,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5926,16 +5926,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6288,8 +6288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12022,1831 +12022,3005 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C77E609-0C7F-4C4F-8FBF-263C99D45B08}">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>-2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
         <v>-2</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10">
         <v>-2</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11">
         <v>-2</v>
       </c>
-      <c r="B8">
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="G11">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-2</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-2</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-2</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="E13">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14">
         <v>-2</v>
       </c>
-      <c r="B14">
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>-2</v>
+      </c>
+      <c r="E15" s="2">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19">
+        <v>-2</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <v>-2</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21">
+        <v>-2</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22">
+        <v>-2</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25">
+        <v>-2</v>
+      </c>
+      <c r="E25">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26">
         <v>-2</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27">
         <v>-2</v>
       </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-2</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-2</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>-2</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>-2</v>
-      </c>
-      <c r="B25">
+      <c r="E27">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="F27">
         <v>4</v>
       </c>
-      <c r="D25">
+      <c r="G27">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>-2</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>-2</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29">
         <v>-1</v>
       </c>
-      <c r="B29">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="C29">
+      <c r="F29">
         <v>6</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30">
         <v>-1</v>
       </c>
-      <c r="B30">
+      <c r="E30">
         <v>6</v>
       </c>
-      <c r="C30">
+      <c r="F30">
         <v>6</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="E31">
         <v>9</v>
       </c>
-      <c r="C31">
+      <c r="F31">
         <v>9</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="B32">
+      <c r="E32">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="F32">
         <v>6</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="B33">
+      <c r="E33">
         <v>11</v>
       </c>
-      <c r="C33">
+      <c r="F33">
         <v>11</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="B34">
+      <c r="E34">
         <v>9</v>
       </c>
-      <c r="C34">
+      <c r="F34">
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35">
         <v>-2</v>
       </c>
-      <c r="B35">
+      <c r="E35" s="2">
+        <v>6</v>
+      </c>
+      <c r="F35">
         <v>1</v>
       </c>
-      <c r="C35" s="2">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36">
+        <v>-2</v>
+      </c>
+      <c r="E36" s="2">
         <v>6</v>
       </c>
-      <c r="D35">
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37">
+        <v>-2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41">
+        <v>-2</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43">
         <v>-2</v>
       </c>
-      <c r="B36">
+      <c r="E43" s="2">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45">
+        <v>-2</v>
+      </c>
+      <c r="E45">
         <v>5</v>
       </c>
-      <c r="C36" s="2">
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46">
+        <v>-2</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
         <v>6</v>
       </c>
-      <c r="D36">
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50">
         <v>-2</v>
       </c>
-      <c r="B37">
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51">
+        <v>-2</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54">
         <v>2</v>
       </c>
-      <c r="C37" s="2">
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55">
+        <v>-2</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56">
+        <v>-2</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
         <v>6</v>
       </c>
-      <c r="D37">
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59">
+        <v>-2</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="E60">
         <v>6</v>
       </c>
-      <c r="B38">
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61">
+        <v>-2</v>
+      </c>
+      <c r="E61">
         <v>4</v>
       </c>
-      <c r="C38">
+      <c r="F61">
         <v>4</v>
       </c>
-      <c r="D38">
+      <c r="G61">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63">
+        <v>-2</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
+      </c>
+      <c r="F64">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66">
         <v>3</v>
       </c>
-      <c r="B39">
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68">
+        <v>-2</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69">
+        <v>-2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72">
+        <v>-2</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>11</v>
+      </c>
+      <c r="G73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74">
+        <v>-1</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75">
+        <v>-1</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76">
+        <v>-1</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77">
+        <v>-1</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
         <v>6</v>
       </c>
-      <c r="C39">
+      <c r="F78">
         <v>6</v>
       </c>
-      <c r="D39">
+      <c r="G78">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79">
         <v>2</v>
       </c>
-      <c r="B40">
+      <c r="E79">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80">
+        <v>-2</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
         <v>4</v>
       </c>
-      <c r="C40">
+      <c r="F81">
         <v>4</v>
       </c>
-      <c r="D40">
+      <c r="G81">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83">
         <v>-2</v>
       </c>
-      <c r="B41">
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84">
+        <v>-2</v>
+      </c>
+      <c r="E84">
         <v>4</v>
       </c>
-      <c r="C41">
+      <c r="F84">
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="G84">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85">
+        <v>-2</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86">
+        <v>-2</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
         <v>6</v>
       </c>
-      <c r="C42">
+      <c r="F88">
         <v>6</v>
       </c>
-      <c r="D42">
+      <c r="G88">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89">
         <v>-2</v>
       </c>
-      <c r="B43">
+      <c r="E89">
         <v>2</v>
       </c>
-      <c r="C43" s="2">
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <v>-2</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
         <v>4</v>
       </c>
-      <c r="D43">
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="E92">
         <v>6</v>
       </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="F92">
+        <v>6</v>
+      </c>
+      <c r="G92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93">
         <v>-2</v>
       </c>
-      <c r="B45">
-        <v>5</v>
-      </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94">
         <v>-2</v>
       </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47">
-        <v>6</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>7</v>
-      </c>
-      <c r="C48">
-        <v>7</v>
-      </c>
-      <c r="D48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>12</v>
-      </c>
-      <c r="C49">
-        <v>12</v>
-      </c>
-      <c r="D49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>-2</v>
-      </c>
-      <c r="B50">
-        <v>6</v>
-      </c>
-      <c r="C50">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>-2</v>
-      </c>
-      <c r="B51">
-        <v>6</v>
-      </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-      <c r="D51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>4</v>
-      </c>
-      <c r="B52">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>6</v>
-      </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>4</v>
-      </c>
-      <c r="B53">
+      <c r="E94">
         <v>3</v>
       </c>
-      <c r="C53">
+      <c r="F94">
         <v>3</v>
       </c>
-      <c r="D53">
+      <c r="G94">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>9</v>
-      </c>
-      <c r="C54">
-        <v>9</v>
-      </c>
-      <c r="D54">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>-2</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>-2</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>4</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58">
-        <v>6</v>
-      </c>
-      <c r="C58">
-        <v>6</v>
-      </c>
-      <c r="D58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>-2</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60">
-        <v>6</v>
-      </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-      <c r="D60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>-2</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>4</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62">
-        <v>6</v>
-      </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>-2</v>
-      </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-      <c r="C63">
-        <v>6</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64">
-        <v>12</v>
-      </c>
-      <c r="C64">
-        <v>12</v>
-      </c>
-      <c r="D64">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>4</v>
-      </c>
-      <c r="B65">
-        <v>6</v>
-      </c>
-      <c r="C65">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>3</v>
-      </c>
-      <c r="B66">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>5</v>
-      </c>
-      <c r="B67">
-        <v>4</v>
-      </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>-2</v>
-      </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>-2</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" s="2">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>5</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>3</v>
-      </c>
-      <c r="B71">
-        <v>4</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>-2</v>
-      </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73">
-        <v>11</v>
-      </c>
-      <c r="C73">
-        <v>11</v>
-      </c>
-      <c r="D73">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>-1</v>
-      </c>
-      <c r="B74">
-        <v>4</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>-1</v>
-      </c>
-      <c r="B75">
-        <v>4</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>-1</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
-      <c r="C76">
-        <v>4</v>
-      </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>-1</v>
-      </c>
-      <c r="B77">
-        <v>5</v>
-      </c>
-      <c r="C77">
-        <v>5</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>2</v>
-      </c>
-      <c r="B78">
-        <v>6</v>
-      </c>
-      <c r="C78">
-        <v>6</v>
-      </c>
-      <c r="D78">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79">
-        <v>8</v>
-      </c>
-      <c r="C79">
-        <v>8</v>
-      </c>
-      <c r="D79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>-2</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>6</v>
-      </c>
-      <c r="B81">
-        <v>4</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>3</v>
-      </c>
-      <c r="B82">
-        <v>10</v>
-      </c>
-      <c r="C82" s="2">
-        <v>9</v>
-      </c>
-      <c r="D82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>-2</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-      <c r="D83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>-2</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>-2</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>-2</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>5</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-      <c r="D87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="B88">
-        <v>6</v>
-      </c>
-      <c r="C88">
-        <v>6</v>
-      </c>
-      <c r="D88">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>-2</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>-2</v>
-      </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-      <c r="D90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>5</v>
-      </c>
-      <c r="B91">
-        <v>4</v>
-      </c>
-      <c r="C91">
-        <v>4</v>
-      </c>
-      <c r="D91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>2</v>
-      </c>
-      <c r="B92">
-        <v>6</v>
-      </c>
-      <c r="C92">
-        <v>6</v>
-      </c>
-      <c r="D92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>-2</v>
-      </c>
-      <c r="B93">
-        <v>3</v>
-      </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-      <c r="D93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>-2</v>
-      </c>
-      <c r="B94">
-        <v>3</v>
-      </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>6</v>
-      </c>
-      <c r="B95">
-        <v>6</v>
-      </c>
-      <c r="C95">
-        <v>6</v>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" t="s">
+        <v>107</v>
       </c>
       <c r="D95">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
+      </c>
+      <c r="G95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96">
         <v>3</v>
       </c>
-      <c r="B96">
+      <c r="E96">
         <v>4</v>
       </c>
-      <c r="C96">
+      <c r="F96">
         <v>4</v>
       </c>
-      <c r="D96">
+      <c r="G96">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" t="s">
+        <v>89</v>
+      </c>
+      <c r="D97">
         <v>-2</v>
       </c>
-      <c r="B97">
+      <c r="E97">
         <v>2</v>
       </c>
-      <c r="C97">
+      <c r="F97">
         <v>2</v>
       </c>
-      <c r="D97">
+      <c r="G97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98">
         <v>-2</v>
       </c>
-      <c r="B98">
+      <c r="E98">
         <v>2</v>
       </c>
-      <c r="C98">
+      <c r="F98">
         <v>2</v>
       </c>
-      <c r="D98">
+      <c r="G98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99">
         <v>5</v>
       </c>
-      <c r="B99">
+      <c r="E99">
         <v>4</v>
       </c>
-      <c r="C99">
+      <c r="F99">
         <v>4</v>
       </c>
-      <c r="D99">
+      <c r="G99">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100">
         <v>2</v>
       </c>
-      <c r="B100">
+      <c r="E100">
         <v>6</v>
       </c>
-      <c r="C100">
+      <c r="F100">
         <v>6</v>
       </c>
-      <c r="D100">
+      <c r="G100">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101">
         <v>-2</v>
       </c>
-      <c r="B101">
+      <c r="E101">
         <v>3</v>
       </c>
-      <c r="C101">
+      <c r="F101">
         <v>3</v>
       </c>
-      <c r="D101">
+      <c r="G101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102">
         <v>-2</v>
       </c>
-      <c r="B102">
+      <c r="E102">
         <v>3</v>
       </c>
-      <c r="C102">
+      <c r="F102">
         <v>3</v>
       </c>
-      <c r="D102">
+      <c r="G102">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>6</v>
-      </c>
-      <c r="B103">
-        <v>6</v>
-      </c>
-      <c r="C103">
-        <v>6</v>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" t="s">
+        <v>77</v>
+      </c>
+      <c r="C103" t="s">
+        <v>113</v>
       </c>
       <c r="D103">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104">
         <v>2</v>
       </c>
-      <c r="B104">
+      <c r="E104">
         <v>6</v>
       </c>
-      <c r="C104">
+      <c r="F104">
         <v>6</v>
       </c>
-      <c r="D104">
+      <c r="G104">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" t="s">
+        <v>114</v>
+      </c>
+      <c r="D105">
         <v>2</v>
       </c>
-      <c r="B105">
+      <c r="E105">
         <v>6</v>
       </c>
-      <c r="C105">
+      <c r="F105">
         <v>6</v>
       </c>
-      <c r="D105">
+      <c r="G105">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106">
         <v>6</v>
       </c>
-      <c r="B106">
+      <c r="E106">
         <v>4</v>
       </c>
-      <c r="C106">
+      <c r="F106">
         <v>4</v>
       </c>
-      <c r="D106">
+      <c r="G106">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107">
         <v>6</v>
       </c>
-      <c r="B107">
+      <c r="E107">
         <v>4</v>
       </c>
-      <c r="C107">
+      <c r="F107">
         <v>4</v>
       </c>
-      <c r="D107">
+      <c r="G107">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" t="s">
+        <v>89</v>
+      </c>
+      <c r="D108">
         <v>-2</v>
       </c>
-      <c r="B108">
+      <c r="E108">
         <v>4</v>
       </c>
-      <c r="C108">
+      <c r="F108">
         <v>4</v>
       </c>
-      <c r="D108">
+      <c r="G108">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109">
         <v>-2</v>
       </c>
-      <c r="B109">
+      <c r="E109">
         <v>2</v>
       </c>
-      <c r="C109">
+      <c r="F109">
         <v>2</v>
       </c>
-      <c r="D109">
+      <c r="G109">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110">
         <v>-2</v>
       </c>
-      <c r="B110">
+      <c r="E110">
         <v>2</v>
       </c>
-      <c r="C110">
+      <c r="F110">
         <v>2</v>
       </c>
-      <c r="D110">
+      <c r="G110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111">
         <v>-2</v>
       </c>
-      <c r="B111">
+      <c r="E111">
         <v>3</v>
       </c>
-      <c r="C111">
+      <c r="F111">
         <v>3</v>
       </c>
-      <c r="D111">
+      <c r="G111">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112">
         <v>-2</v>
       </c>
-      <c r="B112">
+      <c r="E112">
         <v>2</v>
       </c>
-      <c r="C112">
+      <c r="F112">
         <v>2</v>
       </c>
-      <c r="D112">
+      <c r="G112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113">
         <v>5</v>
       </c>
-      <c r="B113">
+      <c r="E113">
         <v>6</v>
       </c>
-      <c r="C113">
+      <c r="F113">
         <v>6</v>
       </c>
-      <c r="D113">
+      <c r="G113">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" t="s">
+        <v>89</v>
+      </c>
+      <c r="D114">
         <v>-2</v>
       </c>
-      <c r="B114">
+      <c r="E114">
         <v>3</v>
       </c>
-      <c r="C114">
+      <c r="F114">
         <v>3</v>
       </c>
-      <c r="D114">
+      <c r="G114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115">
         <v>-2</v>
       </c>
-      <c r="B115">
+      <c r="E115">
         <v>3</v>
       </c>
-      <c r="C115">
+      <c r="F115">
         <v>3</v>
       </c>
-      <c r="D115">
+      <c r="G115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" t="s">
+        <v>89</v>
+      </c>
+      <c r="D116">
         <v>-2</v>
       </c>
-      <c r="B116">
+      <c r="E116">
         <v>3</v>
       </c>
-      <c r="C116">
+      <c r="F116">
         <v>3</v>
       </c>
-      <c r="D116">
+      <c r="G116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>38</v>
+      </c>
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117">
         <v>-2</v>
       </c>
-      <c r="B117">
+      <c r="E117" s="2">
+        <v>3</v>
+      </c>
+      <c r="F117">
         <v>2</v>
       </c>
-      <c r="C117" s="2">
+      <c r="G117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118">
         <v>3</v>
       </c>
-      <c r="D117">
+      <c r="E118" s="2">
+        <v>6</v>
+      </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
+      <c r="G118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" t="s">
+        <v>42</v>
+      </c>
+      <c r="C119" t="s">
+        <v>87</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
+        <v>6</v>
+      </c>
+      <c r="F119">
+        <v>6</v>
+      </c>
+      <c r="G119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120">
+        <v>-1</v>
+      </c>
+      <c r="E120">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121">
+        <v>-1</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>8</v>
+      </c>
+      <c r="F122">
+        <v>8</v>
+      </c>
+      <c r="G122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123">
+        <v>-2</v>
+      </c>
+      <c r="E123">
         <v>3</v>
       </c>
-      <c r="B118">
-        <v>5</v>
-      </c>
-      <c r="C118" s="2">
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" t="s">
+        <v>89</v>
+      </c>
+      <c r="D124">
+        <v>-2</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" t="s">
+        <v>89</v>
+      </c>
+      <c r="D125">
+        <v>-2</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" t="s">
+        <v>98</v>
+      </c>
+      <c r="D126">
         <v>6</v>
       </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" t="s">
+        <v>106</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127">
+        <v>6</v>
+      </c>
+      <c r="G127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>41</v>
+      </c>
+      <c r="B128" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" t="s">
+        <v>89</v>
+      </c>
+      <c r="D128">
+        <v>-2</v>
+      </c>
+      <c r="E128">
         <v>3</v>
       </c>
-      <c r="B119">
-        <v>6</v>
-      </c>
-      <c r="C119">
-        <v>6</v>
-      </c>
-      <c r="D119">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>-1</v>
-      </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>-1</v>
-      </c>
-      <c r="B121">
-        <v>5</v>
-      </c>
-      <c r="C121">
-        <v>5</v>
-      </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>1</v>
-      </c>
-      <c r="B122">
-        <v>8</v>
-      </c>
-      <c r="C122">
-        <v>8</v>
-      </c>
-      <c r="D122">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>-2</v>
-      </c>
-      <c r="B123">
+      <c r="F128">
         <v>3</v>
       </c>
-      <c r="C123">
+      <c r="G128">
         <v>3</v>
       </c>
-      <c r="D123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>-2</v>
-      </c>
-      <c r="B124">
-        <v>3</v>
-      </c>
-      <c r="C124">
-        <v>3</v>
-      </c>
-      <c r="D124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>-2</v>
-      </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>6</v>
-      </c>
-      <c r="B126">
-        <v>4</v>
-      </c>
-      <c r="C126">
-        <v>4</v>
-      </c>
-      <c r="D126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>2</v>
-      </c>
-      <c r="B127">
-        <v>6</v>
-      </c>
-      <c r="C127">
-        <v>6</v>
-      </c>
-      <c r="D127">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>-2</v>
-      </c>
-      <c r="B128">
-        <v>3</v>
-      </c>
-      <c r="C128">
-        <v>3</v>
-      </c>
-      <c r="D128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>4</v>
-      </c>
-      <c r="B129">
-        <v>4</v>
-      </c>
-      <c r="C129">
-        <v>4</v>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" t="s">
+        <v>94</v>
       </c>
       <c r="D129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="E129">
         <v>4</v>
       </c>
-      <c r="B130">
+      <c r="F129">
+        <v>4</v>
+      </c>
+      <c r="G129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130">
         <v>8</v>
       </c>
-      <c r="C130">
+      <c r="E130">
         <v>8</v>
       </c>
-      <c r="D130">
+      <c r="F130">
+        <v>8</v>
+      </c>
+      <c r="G130">
         <v>8</v>
       </c>
     </row>
@@ -13862,7 +15036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B540FEFC-EE8B-40BC-BEEB-A16B9E8421E9}">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
